--- a/CBI-CS_Burnout_Calculator.xlsx
+++ b/CBI-CS_Burnout_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Personal/MBI-CS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD04B6E2-E8E4-0E42-A398-23A43DA67684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28251A3B-D274-6642-B5BE-34EB15C41C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24660" yWindow="-23140" windowWidth="24560" windowHeight="20920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36160" yWindow="-21100" windowWidth="24560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Burnout Calculator" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>CBI-CS Burnout Calculator for Defensive Cybersecurity Operators
 Use the dropdown in the 'Response' column to select: Always, Often, Sometimes, Seldom, Never.
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>How often do you feel engaged and energized by your cybersecurity work?</t>
+  </si>
+  <si>
+    <t>Probability</t>
   </si>
 </sst>
 </file>
@@ -249,11 +252,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,11 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -575,18 +578,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -603,12 +606,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -687,12 +690,12 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -771,12 +774,12 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -855,12 +858,12 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
@@ -939,12 +942,12 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
@@ -1023,12 +1026,12 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
@@ -1038,7 +1041,7 @@
         <v>38</v>
       </c>
       <c r="D46" s="2" t="str">
-        <f>IF(C46="Always",100,IF(C46="Often",75,IF(C46="Sometimes",50,IF(C46="Seldom",25,IF(C46="Never",0,"")))))</f>
+        <f>IF(C46="Always",0,IF(C46="Often",25,IF(C46="Sometimes",50,IF(C46="Seldom",75,IF(C46="Never",100,"")))))</f>
         <v/>
       </c>
     </row>
@@ -1050,7 +1053,7 @@
         <v>39</v>
       </c>
       <c r="D47" s="2" t="str">
-        <f>IF(C47="Always",100,IF(C47="Often",75,IF(C47="Sometimes",50,IF(C47="Seldom",25,IF(C47="Never",0,"")))))</f>
+        <f>IF(C47="Always",0,IF(C47="Often",25,IF(C47="Sometimes",50,IF(C47="Seldom",75,IF(C47="Never",100,"")))))</f>
         <v/>
       </c>
     </row>
@@ -1062,7 +1065,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="2" t="str">
-        <f>IF(C48="Always",100,IF(C48="Often",75,IF(C48="Sometimes",50,IF(C48="Seldom",25,IF(C48="Never",0,"")))))</f>
+        <f>IF(C48="Always",0,IF(C48="Often",25,IF(C48="Sometimes",50,IF(C48="Seldom",75,IF(C48="Never",100,"")))))</f>
         <v/>
       </c>
     </row>
@@ -1074,7 +1077,7 @@
         <v>41</v>
       </c>
       <c r="D49" s="2" t="str">
-        <f>IF(C49="Always",100,IF(C49="Often",75,IF(C49="Sometimes",50,IF(C49="Seldom",25,IF(C49="Never",0,"")))))</f>
+        <f>IF(C49="Always",0,IF(C49="Often",25,IF(C49="Sometimes",50,IF(C49="Seldom",75,IF(C49="Never",100,"")))))</f>
         <v/>
       </c>
     </row>
@@ -1086,7 +1089,7 @@
         <v>42</v>
       </c>
       <c r="D50" s="2" t="str">
-        <f>IF(C50="Always",100,IF(C50="Often",75,IF(C50="Sometimes",50,IF(C50="Seldom",25,IF(C50="Never",0,"")))))</f>
+        <f>IF(C50="Always",0,IF(C50="Often",25,IF(C50="Sometimes",50,IF(C50="Seldom",75,IF(C50="Never",100,"")))))</f>
         <v/>
       </c>
     </row>
@@ -1103,6 +1106,15 @@
       </c>
       <c r="E51" s="2" t="e">
         <f>IF(AVERAGE(D46:D50)="", "", IF(AVERAGE(D46:D50)&lt;50,"Low",IF(AVERAGE(D46:D50)&lt;75,"Moderate","High")))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="e">
+        <f>AVERAGE(C9,C17,C25,C33,C41,C49)</f>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/CBI-CS_Burnout_Calculator.xlsx
+++ b/CBI-CS_Burnout_Calculator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pkelley/Desktop/Personal/MBI-CS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28251A3B-D274-6642-B5BE-34EB15C41C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5855549-5768-7545-B96C-B12560316AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36160" yWindow="-21100" windowWidth="24560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,8 +565,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="4" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1114,7 @@
         <v>43</v>
       </c>
       <c r="E54" t="e">
-        <f>AVERAGE(C9,C17,C25,C33,C41,C49)</f>
+        <f>TEXT(AVERAGE(D9,D17,D25,D33,D41,D49),"0") &amp; "% - " &amp; IF(AVERAGE(D9,D17,D25,D33,D41,D49)&lt;40,"Low",IF(AVERAGE(D9,D17,D25,D33,D41,D49)&lt;70,"Moderate","High"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
